--- a/biology/Botanique/Archibald_Menzies/Archibald_Menzies.xlsx
+++ b/biology/Botanique/Archibald_Menzies/Archibald_Menzies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archibald Menzies est un médecin, un botaniste et un artiste britannique, né le 15 mars 1754 à Weem dans la région de Perth en Écosse et mort le 15 février 1842 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de James Menzies et d’Ann née Janet. Après une scolarité rudimentaire, il travaille comme jardinier, comme ses quatre frères, pour Sir Robert Menzies de Menzies, le chef du clan, qui s’intéresse aux nouveaux végétaux importés par les voyageurs. L’un de ses frères, William, s’installe à Édimbourg pour y travailler dans le jardin botanique établi par John Hope  dans l’université de la ville. Archibald l'y rejoint. Hope, remarquant son intelligence, l’encourage à étudier, ce qu’il fait de 1771 à 1780 ; Archibald étudie particulièrement la botanique, la médecine, la chirurgie et la chimie.
 Après ses études, il devient assistant d’un chirurgien à Caernarfon dans le Pays de Galles. En 1782, Menzies devient assistant-chirurgien à la Navy. Il participe à la bataille des Saintes dans les Caraïbes et est en poste en 1784 à Halifax. Il récolte des spécimens botaniques qu’il fait parvenir à Sir Joseph Banks. Il revient en Grande-Bretagne où il étudie dans l’herbier et la bibliothèque de Banks. Un exemplaire des plantes qu’il a récoltées dans la Nouvelle-Écosse est utilisé par Dawson Turner dans sa Fuci (1809).
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dictionnaire biographique du Canada en ligne</t>
         </is>
